--- a/Tutorial/My projects/My Portfolio/Port_folio_draft.xlsx
+++ b/Tutorial/My projects/My Portfolio/Port_folio_draft.xlsx
@@ -1,37 +1,282 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nafissaad\Tutorial\Fundamental analysis\My Portfolio\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98E3414-5834-4F1E-B473-9B884361D61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>ISLAMIBANK</t>
+  </si>
+  <si>
+    <t>Islami Bank Bangladesh Limited</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>RAKCERAMIC</t>
+  </si>
+  <si>
+    <t>RAK Ceramics (Bangladesh) Limited</t>
+  </si>
+  <si>
+    <t>Ceramic</t>
+  </si>
+  <si>
+    <t>SALAMCRST</t>
+  </si>
+  <si>
+    <t>S. Alam Cold Rolled Steels Ltd.</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>POWERGRID</t>
+  </si>
+  <si>
+    <t>Power Grid Company of Bangladesh Ltd.</t>
+  </si>
+  <si>
+    <t>Fuel &amp; Power</t>
+  </si>
+  <si>
+    <t>BATBC</t>
+  </si>
+  <si>
+    <t>British American Tobacco Bangladesh Company Limited</t>
+  </si>
+  <si>
+    <t>FOOD &amp; Allied</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>Renata Ltd.</t>
+  </si>
+  <si>
+    <t>MARICO</t>
+  </si>
+  <si>
+    <t>Marico Bangladesh Limited</t>
+  </si>
+  <si>
+    <t>Pharmaceuticals &amp; Chemicals</t>
+  </si>
+  <si>
+    <t>SINGERBD</t>
+  </si>
+  <si>
+    <t>Singer Bangladesh Ltd</t>
+  </si>
+  <si>
+    <t>LINDEBD</t>
+  </si>
+  <si>
+    <t>Linde Bangladesh Ltd</t>
+  </si>
+  <si>
+    <t>SUMITPOWER</t>
+  </si>
+  <si>
+    <t>Summit Power Ltd</t>
+  </si>
+  <si>
+    <t>BERGERPBL</t>
+  </si>
+  <si>
+    <t>Berger Paints India Ltd</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>BXPHARMA</t>
+  </si>
+  <si>
+    <t>Beximco Pharmaceuticals Ltd</t>
+  </si>
+  <si>
+    <t>SQURPHARMA</t>
+  </si>
+  <si>
+    <t>Square Pharmaceuticals Ltd</t>
+  </si>
+  <si>
+    <t>SAPORTL</t>
+  </si>
+  <si>
+    <t>Summit Alliance Port Ltd</t>
+  </si>
+  <si>
+    <t>Services &amp; Real Estate</t>
+  </si>
+  <si>
+    <t>BSCCL</t>
+  </si>
+  <si>
+    <t>Bangladesh Submarine Cables PLC</t>
+  </si>
+  <si>
+    <t>Telecommunication</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Grameenphone Ltd</t>
+  </si>
+  <si>
+    <t>SQUARETEXT</t>
+  </si>
+  <si>
+    <t>Square Textile Ltd</t>
+  </si>
+  <si>
+    <t>Textile</t>
+  </si>
+  <si>
+    <t>UNIQUEHRL</t>
+  </si>
+  <si>
+    <t>Unique Hotel &amp; Resorts PLC</t>
+  </si>
+  <si>
+    <t>Travel &amp; Leisure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EXIMBANK</t>
+  </si>
+  <si>
+    <t>Export Import Bank of Bangladesh Ltd</t>
+  </si>
+  <si>
+    <t>HEIDELBCEM</t>
+  </si>
+  <si>
+    <t>Heidelberg Cement Bangladesh Ltd</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OLYMPIC</t>
+  </si>
+  <si>
+    <t>Olympic Industries Ltd OLYMPIC</t>
+  </si>
+  <si>
+    <t>BSRMSTEEL</t>
+  </si>
+  <si>
+    <t>BSRM Steels Ltd</t>
+  </si>
+  <si>
+    <t>Iron &amp; Steel</t>
+  </si>
+  <si>
+    <t>BEXIMCO</t>
+  </si>
+  <si>
+    <t>BEXIMCO Ltd</t>
+  </si>
+  <si>
+    <t>NATLIFEINS</t>
+  </si>
+  <si>
+    <t>National Life Insurance Co Ltd</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>HFL</t>
+  </si>
+  <si>
+    <t>Hamid Fabrics Ltd</t>
+  </si>
+  <si>
+    <t>BATASHOE</t>
+  </si>
+  <si>
+    <t>Bata Shoe Co (Bangladesh) Ltd</t>
+  </si>
+  <si>
+    <t>Tannery Industries</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> APEXSPINN</t>
+  </si>
+  <si>
+    <t>Apex Spinning &amp; Knitting Mills Ltd</t>
+  </si>
+  <si>
+    <t>UPGDCL</t>
+  </si>
+  <si>
+    <t>United Power Generation &amp; Distribution Co. Ltd</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +291,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,78 +615,420 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Full Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Evaluation</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>ISLAMIBANK</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Islami Bank Bangladesh Limited</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bank</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Will Buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>RAKCERAMIC</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>RAK Ceramics (Bangladesh) Limited</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Ceramic</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Will Buy</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Tutorial/My projects/My Portfolio/Port_folio_draft.xlsx
+++ b/Tutorial/My projects/My Portfolio/Port_folio_draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nafissaad\Tutorial\Fundamental analysis\My Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98E3414-5834-4F1E-B473-9B884361D61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B185B0-293E-40CE-AA93-0276BAB9C7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="113">
   <si>
     <t>Full Name</t>
   </si>
@@ -172,88 +172,193 @@
     <t>Textile</t>
   </si>
   <si>
+    <t>HEIDELBCEM</t>
+  </si>
+  <si>
+    <t>Heidelberg Cement Bangladesh Ltd</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OLYMPIC</t>
+  </si>
+  <si>
+    <t>Olympic Industries Ltd OLYMPIC</t>
+  </si>
+  <si>
+    <t>BSRMSTEEL</t>
+  </si>
+  <si>
+    <t>BSRM Steels Ltd</t>
+  </si>
+  <si>
+    <t>Iron &amp; Steel</t>
+  </si>
+  <si>
+    <t>BEXIMCO</t>
+  </si>
+  <si>
+    <t>BEXIMCO Ltd</t>
+  </si>
+  <si>
+    <t>NATLIFEINS</t>
+  </si>
+  <si>
+    <t>National Life Insurance Co Ltd</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>HFL</t>
+  </si>
+  <si>
+    <t>Hamid Fabrics Ltd</t>
+  </si>
+  <si>
+    <t>BATASHOE</t>
+  </si>
+  <si>
+    <t>Bata Shoe Co (Bangladesh) Ltd</t>
+  </si>
+  <si>
+    <t>Tannery Industries</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> APEXSPINN</t>
+  </si>
+  <si>
+    <t>Apex Spinning &amp; Knitting Mills Ltd</t>
+  </si>
+  <si>
+    <t>UPGDCL</t>
+  </si>
+  <si>
+    <t>United Power Generation &amp; Distribution Co. Ltd</t>
+  </si>
+  <si>
+    <t>DELTALIFE</t>
+  </si>
+  <si>
+    <t>Green Delta Insurance Co. Ltd.</t>
+  </si>
+  <si>
+    <t>CROWNCEMNT</t>
+  </si>
+  <si>
+    <t>Crown Cement PLC</t>
+  </si>
+  <si>
+    <t>BENGALWTL</t>
+  </si>
+  <si>
+    <t>Bengal Windsor Thermoplastics Ltd.</t>
+  </si>
+  <si>
+    <t>EHL</t>
+  </si>
+  <si>
+    <t>Eastern Housing Ltd.</t>
+  </si>
+  <si>
+    <t>IBNSINA</t>
+  </si>
+  <si>
+    <t>IBN SINA Pharmaceutical Industry PLC</t>
+  </si>
+  <si>
+    <t>WALTONHIL</t>
+  </si>
+  <si>
+    <t>Walton Hi-Tech Industries Ltd.</t>
+  </si>
+  <si>
     <t>UNIQUEHRL</t>
   </si>
   <si>
-    <t>Unique Hotel &amp; Resorts PLC</t>
-  </si>
-  <si>
-    <t>Travel &amp; Leisure</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EXIMBANK</t>
-  </si>
-  <si>
-    <t>Export Import Bank of Bangladesh Ltd</t>
-  </si>
-  <si>
-    <t>HEIDELBCEM</t>
-  </si>
-  <si>
-    <t>Heidelberg Cement Bangladesh Ltd</t>
-  </si>
-  <si>
-    <t>Cement</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OLYMPIC</t>
-  </si>
-  <si>
-    <t>Olympic Industries Ltd OLYMPIC</t>
-  </si>
-  <si>
-    <t>BSRMSTEEL</t>
-  </si>
-  <si>
-    <t>BSRM Steels Ltd</t>
-  </si>
-  <si>
-    <t>Iron &amp; Steel</t>
-  </si>
-  <si>
-    <t>BEXIMCO</t>
-  </si>
-  <si>
-    <t>BEXIMCO Ltd</t>
-  </si>
-  <si>
-    <t>NATLIFEINS</t>
-  </si>
-  <si>
-    <t>National Life Insurance Co Ltd</t>
-  </si>
-  <si>
-    <t>Insurance</t>
-  </si>
-  <si>
-    <t>HFL</t>
-  </si>
-  <si>
-    <t>Hamid Fabrics Ltd</t>
-  </si>
-  <si>
-    <t>BATASHOE</t>
-  </si>
-  <si>
-    <t>Bata Shoe Co (Bangladesh) Ltd</t>
-  </si>
-  <si>
-    <t>Tannery Industries</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> APEXSPINN</t>
-  </si>
-  <si>
-    <t>Apex Spinning &amp; Knitting Mills Ltd</t>
-  </si>
-  <si>
-    <t>UPGDCL</t>
-  </si>
-  <si>
-    <t>United Power Generation &amp; Distribution Co. Ltd</t>
+    <t>Unique Hotel &amp; Resorts Ltd.</t>
+  </si>
+  <si>
+    <t>Travel and Leisure</t>
+  </si>
+  <si>
+    <t>UNILEVERCL</t>
+  </si>
+  <si>
+    <t>Unilever Consumer Care Ltd.</t>
+  </si>
+  <si>
+    <t>KDSALTD</t>
+  </si>
+  <si>
+    <t>KDS Accessories Ltd.</t>
+  </si>
+  <si>
+    <t>JHRML</t>
+  </si>
+  <si>
+    <t>JMI Hospital Requisite Manufacturing Ltd.</t>
+  </si>
+  <si>
+    <t>ANDTEL</t>
+  </si>
+  <si>
+    <t>Adn Telecom Ltd (ADNT)</t>
+  </si>
+  <si>
+    <t>IT Sector</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>IT Consultants Ltd.</t>
+  </si>
+  <si>
+    <t>SIMTEX</t>
+  </si>
+  <si>
+    <t>Simtex Industries Ltd.</t>
+  </si>
+  <si>
+    <t>APEXFOOT</t>
+  </si>
+  <si>
+    <t>Apex Footwear Ltd.</t>
+  </si>
+  <si>
+    <t>APEXFOODS</t>
+  </si>
+  <si>
+    <t>Apex Foods Ltd.</t>
+  </si>
+  <si>
+    <t>FORTUNE</t>
+  </si>
+  <si>
+    <t>Fortune Shoes Ltd.</t>
+  </si>
+  <si>
+    <t>INDEXAGRO</t>
+  </si>
+  <si>
+    <t>Index Agro Industries Ltd.</t>
+  </si>
+  <si>
+    <t>AMANFEED</t>
+  </si>
+  <si>
+    <t>Aman Feed Ltd.</t>
+  </si>
+  <si>
+    <t>SKICL</t>
+  </si>
+  <si>
+    <t>Sena Kalyan Insurance Co Ltd (SENA)</t>
   </si>
 </sst>
 </file>
@@ -616,16 +721,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -650,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -748,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -846,7 +951,7 @@
         <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -860,7 +965,7 @@
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -888,35 +993,35 @@
         <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -927,10 +1032,10 @@
         <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -955,7 +1060,7 @@
         <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -986,7 +1091,7 @@
         <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,38 +1102,276 @@
         <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
         <v>74</v>
       </c>
-      <c r="B28" t="s">
-        <v>75</v>
-      </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
         <v>76</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
